--- a/medicine/Mort/Tombe_du_Soldat_inconnu/Tombe_du_Soldat_inconnu.xlsx
+++ b/medicine/Mort/Tombe_du_Soldat_inconnu/Tombe_du_Soldat_inconnu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tradition de la tombe du Soldat inconnu est née de la Première Guerre mondiale et se retrouve dans de nombreux pays. 
 Une telle tombe contient les restes d'un soldat tué au combat et dont on ignore le nom et quelquefois même la nationalité. En tant que mort inconnu, il représente tous les morts du conflit. Pour certains pays, le soldat est tombé avant ou après la Première Guerre mondiale.
@@ -512,7 +524,9 @@
           <t>Les premières tombes du Soldat inconnu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les deux premiers soldats inconnus installés dans une telle tombe furent un Français et un Anglais, le 11 novembre 1920, en l'honneur des combattants tués pendant la Première Guerre mondiale, dans la tombe française du Soldat inconnu se trouvant à Paris, sous l'arc de triomphe de l'Étoile et la tombe anglaise du Soldat inconnu se trouvant à Londres à l'abbaye de Westminster.
 </t>
@@ -543,7 +557,9 @@
           <t>Emplacement des tombes du Soldat inconnu dans le monde</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>.
 Albanie : statue et place du Soldat inconnu à Tirana.
@@ -559,7 +575,7 @@
 États-Unis : la Tombe des Inconnus, au cimetière national d'Arlington, près de Washington.
 France :
 la tombe du Soldat inconnu, sous l'arc de triomphe de l'Étoile à Paris.
-la tombe du Soldat inconnu de la guerre d'Algérie, à la Nécropole nationale de Notre-Dame-de-Lorette, sur le territoire de la commune d'Ablain-Saint-Nazaire, inaugurée le 16 octobre 1962[1],[2].
+la tombe du Soldat inconnu de la guerre d'Algérie, à la Nécropole nationale de Notre-Dame-de-Lorette, sur le territoire de la commune d'Ablain-Saint-Nazaire, inaugurée le 16 octobre 1962,.
 Gambie : Le Soldat inconnu est situé au rond-point devant l'Arche 22 à Banjul.
 Grèce : la tombe du Soldat inconnu sur la place Syntagma, à Athènes.
 Irak : la Tombe du Soldat inconnu, à Bagdad.
@@ -610,7 +626,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cinéma
 Le film La Vie et rien d'autre de Bertrand Tavernier, traite du thème de la recherche du soldat inconnu.
